--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -540,10 +540,10 @@
         <v>0.5974390000000001</v>
       </c>
       <c r="I2">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="J2">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.893565</v>
+        <v>13.11310966666667</v>
       </c>
       <c r="N2">
-        <v>119.680695</v>
+        <v>39.339329</v>
       </c>
       <c r="O2">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="P2">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="Q2">
-        <v>7.944657193344999</v>
+        <v>2.611427708714555</v>
       </c>
       <c r="R2">
-        <v>71.50191474010499</v>
+        <v>23.502849378431</v>
       </c>
       <c r="S2">
-        <v>0.4838111513252347</v>
+        <v>0.2080923675542409</v>
       </c>
       <c r="T2">
-        <v>0.4838111513252347</v>
+        <v>0.2080923675542409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5974390000000001</v>
       </c>
       <c r="I3">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="J3">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>79.447221</v>
       </c>
       <c r="O3">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946081</v>
       </c>
       <c r="P3">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946082</v>
       </c>
       <c r="Q3">
         <v>5.273874251891</v>
@@ -632,10 +632,10 @@
         <v>47.46486826701901</v>
       </c>
       <c r="S3">
-        <v>0.3211666799027225</v>
+        <v>0.420250185596582</v>
       </c>
       <c r="T3">
-        <v>0.3211666799027225</v>
+        <v>0.4202501855965821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5974390000000001</v>
       </c>
       <c r="I4">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="J4">
-        <v>0.9133463074874526</v>
+        <v>0.7994676808118871</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.935727999999999</v>
+        <v>10.783589</v>
       </c>
       <c r="N4">
-        <v>26.807184</v>
+        <v>32.350767</v>
       </c>
       <c r="O4">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="P4">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="Q4">
-        <v>1.779517466864</v>
+        <v>2.147512209523667</v>
       </c>
       <c r="R4">
-        <v>16.015657201776</v>
+        <v>19.327609885713</v>
       </c>
       <c r="S4">
-        <v>0.1083684762594954</v>
+        <v>0.1711251276610642</v>
       </c>
       <c r="T4">
-        <v>0.1083684762594954</v>
+        <v>0.1711251276610642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.018894</v>
+        <v>0.04995233333333333</v>
       </c>
       <c r="H5">
-        <v>0.056682</v>
+        <v>0.149857</v>
       </c>
       <c r="I5">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="J5">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.893565</v>
+        <v>13.11310966666667</v>
       </c>
       <c r="N5">
-        <v>119.680695</v>
+        <v>39.339329</v>
       </c>
       <c r="O5">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="P5">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="Q5">
-        <v>0.75374901711</v>
+        <v>0.6550304251058888</v>
       </c>
       <c r="R5">
-        <v>6.783741153989999</v>
+        <v>5.895273825953</v>
       </c>
       <c r="S5">
-        <v>0.0459015626355443</v>
+        <v>0.0521962876956072</v>
       </c>
       <c r="T5">
-        <v>0.0459015626355443</v>
+        <v>0.0521962876956072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.018894</v>
+        <v>0.04995233333333333</v>
       </c>
       <c r="H6">
-        <v>0.056682</v>
+        <v>0.149857</v>
       </c>
       <c r="I6">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="J6">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>79.447221</v>
       </c>
       <c r="O6">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946081</v>
       </c>
       <c r="P6">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946082</v>
       </c>
       <c r="Q6">
-        <v>0.500358597858</v>
+        <v>1.322858021933</v>
       </c>
       <c r="R6">
-        <v>4.503227380722</v>
+        <v>11.905722197397</v>
       </c>
       <c r="S6">
-        <v>0.03047067524926581</v>
+        <v>0.105412321698026</v>
       </c>
       <c r="T6">
-        <v>0.03047067524926581</v>
+        <v>0.1054123216980261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.018894</v>
+        <v>0.04995233333333333</v>
       </c>
       <c r="H7">
-        <v>0.056682</v>
+        <v>0.149857</v>
       </c>
       <c r="I7">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="J7">
-        <v>0.08665369251254737</v>
+        <v>0.2005323191881128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.935727999999999</v>
+        <v>10.783589</v>
       </c>
       <c r="N7">
-        <v>26.807184</v>
+        <v>32.350767</v>
       </c>
       <c r="O7">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="P7">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="Q7">
-        <v>0.168831644832</v>
+        <v>0.5386654322576666</v>
       </c>
       <c r="R7">
-        <v>1.519484803488</v>
+        <v>4.847988890318999</v>
       </c>
       <c r="S7">
-        <v>0.01028145462773726</v>
+        <v>0.04292370979447959</v>
       </c>
       <c r="T7">
-        <v>0.01028145462773726</v>
+        <v>0.0429237097944796</v>
       </c>
     </row>
   </sheetData>
